--- a/Price.xlsx
+++ b/Price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c21ddadc23376b4d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapca\Downloads\Flask-Bootcamp-master\Flask-Bootcamp-master\Capstone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{8DFC53B2-3910-433A-B773-E88174C09DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B61986C-0576-41D1-8118-EC1081581278}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB61D45-A43F-4D12-902A-D4C782DFED48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F5011C0E-AAF4-4559-8539-0359CFC783EE}"/>
   </bookViews>
@@ -474,7 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033949EC-7E36-43AB-9E58-DC38EE4EFDE2}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
